--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_007.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_007.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Pressure control</t>
-  </si>
-  <si>
-    <t>(295003AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Containment isolation</t>
-  </si>
-  <si>
-    <t>(295026EK2.08) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295016AA2.08) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Successful transfer</t>
-  </si>
-  <si>
-    <t>(295030EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool makeup system(s)</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
-  </si>
-  <si>
-    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
-  </si>
-  <si>
-    <t>(295001AK2.01) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295037EA1.16) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295019AK2.03) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
-  </si>
-  <si>
-    <t>(295038EK2.11) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) MSIV leakage control</t>
-  </si>
-  <si>
-    <t>(295024EA2.07) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Containment radiation levels (Mark III)</t>
-  </si>
-  <si>
-    <t>(295031EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) High-pressure coolant injection</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295004AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Redundant DC power supplies</t>
-  </si>
-  <si>
-    <t>(295002AK2.06) Knowledge of the relationship between the (APE 2) LOSS OF MAIN CONDENSER VACUUM and the following systems or components: (CFR: 41.7 / 45.8) Condensate system</t>
-  </si>
-  <si>
-    <t>(295022AA2.03) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) CRD mechanism temperatures</t>
-  </si>
-  <si>
-    <t>(295032EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.7 / 45.6) Leak detection system</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(500000EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.8 to 41.10) Hydrogen ignition/deflagration</t>
-  </si>
-  <si>
-    <t>(295020AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.5 / 45.6) RPS actuation</t>
-  </si>
-  <si>
-    <t>(259002K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) ECCS</t>
-  </si>
-  <si>
-    <t>(203000A3.01) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(209002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Abnormal condensate storage tank water level</t>
-  </si>
-  <si>
-    <t>(262001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Bus voltage</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(217000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(261000A4.06) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) </t>
-  </si>
-  <si>
-    <t>(211000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Accumulator operation</t>
-  </si>
-  <si>
-    <t>(218000K4.02) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Allow manual initiation of ADS logic</t>
-  </si>
-  <si>
-    <t>(215005A2.06) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow channels upscale</t>
-  </si>
-  <si>
-    <t>(264000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fire protection system</t>
-  </si>
-  <si>
-    <t>(510000A3.01) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts</t>
-  </si>
-  <si>
-    <t>(223002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(205000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) SDC/RHR pump/system discharge pressure</t>
-  </si>
-  <si>
-    <t>(400000K2.01) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW pumps</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (291004K1.23) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Functions and characteristics of positive displacement pumps</t>
-  </si>
-  <si>
-    <t>(300000K3.17) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Heater drain system</t>
-  </si>
-  <si>
-    <t>(263000A4.05) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Meters, dials, recorders, alarms, and indicating lights</t>
-  </si>
-  <si>
-    <t>(215004K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Detector operation</t>
-  </si>
-  <si>
-    <t>(212000K4.07) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Manual SCRAM</t>
-  </si>
-  <si>
-    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
-  </si>
-  <si>
-    <t>(259002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor feedwater flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(203000A3.02) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Pump start </t>
-  </si>
-  <si>
-    <t>(209002K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(262001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) System power</t>
-  </si>
-  <si>
-    <t>(201001K4.10) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Control of rod movement with HCU directional control valves</t>
-  </si>
-  <si>
-    <t>(290002A2.05) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding thermal limits</t>
-  </si>
-  <si>
-    <t>(226001K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Containment instrumentation</t>
-  </si>
-  <si>
-    <t>(510001A3.01) Ability to monitor automatic operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts/stops</t>
-  </si>
-  <si>
-    <t>(201003K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(239001A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.5 / 45.5) Main steam line radiation</t>
-  </si>
-  <si>
-    <t>(223001K2.12) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES Knowledge of electrical power supplies to the following: (CFR: 41.7) Containment hardened vent isolation valves</t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(290003K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 CRV) CONTROL ROOM VENTILATION will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control room radioactivity</t>
-  </si>
-  <si>
-    <t>(201005A4.01) Ability to manually operate and/or monitor the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Operator control module (lights and push buttons)</t>
-  </si>
-  <si>
-    <t>(256000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.5 / 45.3) Heat exchanger level operation</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Suppression pool cooling</t>
+  </si>
+  <si>
+    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
+  </si>
+  <si>
+    <t>(295027EK2.01) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI: containment spray system mode</t>
+  </si>
+  <si>
+    <t>(295005AA1.04) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Main turbine generator and auxiliaries</t>
+  </si>
+  <si>
+    <t>(295018AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Increasing cooling water flow to heat exchangers</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
+  </si>
+  <si>
+    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
+  </si>
+  <si>
+    <t>(295019AK2.17) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) High-pressure coolant injection</t>
+  </si>
+  <si>
+    <t>(295024EA1.24) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Drywell cooling</t>
+  </si>
+  <si>
+    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(295023AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Ventilation isolation</t>
+  </si>
+  <si>
+    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+  </si>
+  <si>
+    <t>(295003AK2.06) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295037EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) APRM/LPRM system</t>
+  </si>
+  <si>
+    <t>(295016AK2.11) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295009AA2.02) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feed flow mismatch</t>
+  </si>
+  <si>
+    <t>(295033EK2.06) Knowledge of the relationship between the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS and the following systems or components: (CFR: 41.7 / 45.8) Systems required to suppress a fire</t>
+  </si>
+  <si>
+    <t>(295032EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.7 / 45.6) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(295014AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Preconditioning interim operating management recommendations (PCIOMR)</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295029EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
+  </si>
+  <si>
+    <t>(217000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Flow control</t>
+  </si>
+  <si>
+    <t>(212000A3.09) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System actuation</t>
+  </si>
+  <si>
+    <t>(218000K4.05) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Inhibiting automatic initiation of ADS logic</t>
+  </si>
+  <si>
+    <t>(203000K3.04) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(300000K2.01) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Instrument air compressor</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(263000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(261000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Primary containment pressure</t>
+  </si>
+  <si>
+    <t>(215004K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detector drive motor</t>
+  </si>
+  <si>
+    <t>(262001A2.12) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(259002A4.05) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Runout flow control reset controls</t>
+  </si>
+  <si>
+    <t>(264000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Fuel consumption rate</t>
+  </si>
+  <si>
+    <t>(239002A3.01) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation after ADS actuation</t>
+  </si>
+  <si>
+    <t>(223002K4.06) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Once initiated, system reset requires deliberate operator action</t>
+  </si>
+  <si>
+    <t>(205000K3.01) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(209001K2.02) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (291005K1.02) MOTORS AND GENERATORS (CFR: 41.7) Potential consequences of overheating motor insulation or motor bearings</t>
+  </si>
+  <si>
+    <t>(209002K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems (HPCS room coolers )</t>
+  </si>
+  <si>
+    <t>(215003A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) IRM back panel switches</t>
+  </si>
+  <si>
+    <t>(510000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Pump trip</t>
+  </si>
+  <si>
+    <t>(215005A2.02) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale or downscale trips</t>
+  </si>
+  <si>
+    <t>(262002K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment isolation system/nuclear steam supply shutoff</t>
+  </si>
+  <si>
+    <t>(217000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Reactor level control</t>
+  </si>
+  <si>
+    <t>(212000A3.10) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Bypassing SCRAM signals</t>
+  </si>
+  <si>
+    <t>(218000K4.03) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) ADS logic control</t>
+  </si>
+  <si>
+    <t>(510001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Valve malfunctions</t>
+  </si>
+  <si>
+    <t>(241000A2.04) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal control/governor valve position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(239001A4.02) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Main steam line drain valves </t>
+  </si>
+  <si>
+    <t>(286000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FPS) FIRE PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Effect of water spray on electrical components</t>
+  </si>
+  <si>
+    <t>(245000A3.05) Ability to monitor automatic operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.7 / 45.7) Control valve operation</t>
+  </si>
+  <si>
+    <t>(216000K4.09) Knowledge of (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION design features and/or interlocks that provide for the following: (CFR: 41.7) Protection against filling the main steam lines from the feed system</t>
+  </si>
+  <si>
+    <t>(288000K3.08) Knowledge of the effect that a loss or malfunction of the (SF9 PVS) PLANT VENTILATION SYSTEMS will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Turbine building differential pressure</t>
+  </si>
+  <si>
+    <t>(219000K2.03) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valve control logic</t>
+  </si>
+  <si>
+    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(202001K1.21) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF4 RS) RECIRCULATION SYSTEM and the following systems: (CFR: 41.2 to 41.8 / 45.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(256000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.5 / 45.5) System flow</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292005K1.05) CONTROL RODS (CFR: 41.1) Define rod density</t>
+  </si>
+  <si>
+    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
+  </si>
+  <si>
+    <t>(293004K1.13) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain vacuum formation in condenser processes</t>
+  </si>
+  <si>
+    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
+  </si>
+  <si>
+    <t>(293009K1.43) CORE THERMAL LIMITS (CFR: 41.14) For the following plant operating or accident condition, identify which of the three core thermal limits are most limiting: Cold water addition</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295025EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295006AA2.01) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295005AA2.05) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295010AA2.03) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell radiation levels</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(300000A2.03) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(202002A2.06) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor water level</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(290002A2.04) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Excessive heatup/cooldown rate</t>
+  </si>
+  <si>
+    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292006K1.03) FISSION PRODUCT POISONS (CFR: 41.1) Describe the production of xenon-135</t>
-  </si>
-  <si>
-    <t>(292003K1.05) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define reactor period</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
-  </si>
-  <si>
-    <t>(293006K1.08) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss pump head</t>
-  </si>
-  <si>
-    <t>(293003K1.07) STEAM (CFR: 41.14) Define the following term: Saturated liquid</t>
-  </si>
-  <si>
-    <t>(295021AA2.01) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Containment/drywell temperature</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(700000AA2.09) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of emergency diesel generators</t>
-  </si>
-  <si>
-    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
-  </si>
-  <si>
-    <t>(239002A2.05) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor pressure</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(217000A2.13) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of room cooling</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(211000A2.05) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of SLCS tank heaters</t>
-  </si>
-  <si>
-    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(239003A2.09) Ability to (a) predict the impacts of the following on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Outboard main steamline high pressure</t>
-  </si>
-  <si>
-    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>K3</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
+    <t>K4</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,16 +385,58 @@
     <t>T</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295021</t>
   </si>
   <si>
-    <t>295006</t>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295038</t>
   </si>
   <si>
     <t>295003</t>
   </si>
   <si>
-    <t>295026</t>
+    <t>295037</t>
   </si>
   <si>
     <t>295016</t>
@@ -403,199 +445,157 @@
     <t>295030</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295022</t>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295033</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
     <t>295010</t>
   </si>
   <si>
-    <t>500000</t>
-  </si>
-  <si>
     <t>295020</t>
   </si>
   <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>201001</t>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>268000</t>
   </si>
   <si>
     <t>290002</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>272000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D37" t="s">
         <v>115</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1837,7 +1837,7 @@
         <v>3.8</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
         <v>115</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1905,7 +1905,7 @@
         <v>3.4</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1956,7 +1956,7 @@
         <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
